--- a/doc/不同身份签署的文件&上传的资料.xlsx
+++ b/doc/不同身份签署的文件&上传的资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>不同人员签名文件</t>
   </si>
@@ -85,6 +85,9 @@
     <t>1（客户有选择挂名董事才用签）</t>
   </si>
   <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
     <t>不同人员按身份上传的文件（股东、董事）</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>护照（有照片页）、持护照（打开有照片页）上半身照、住所证明</t>
+  </si>
+  <si>
+    <t>管理员帐号的在线签名增加4个身份：挂名董事1、挂名董事2、经理、秘书。</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -159,19 +165,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="30"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +204,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,31 +238,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -283,13 +308,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,13 +675,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFB17"/>
+  <dimension ref="A1:XFB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.875" style="1" customWidth="1"/>
@@ -659,7 +700,7 @@
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:16382">
+    <row r="2" spans="1:16382">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -671,7 +712,7 @@
       <c r="XFA2"/>
       <c r="XFB2"/>
     </row>
-    <row r="3" ht="22.5" spans="1:16382">
+    <row r="3" spans="1:16382">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -693,7 +734,7 @@
       <c r="XFA3"/>
       <c r="XFB3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:16382">
+    <row r="4" spans="1:16382">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -711,7 +752,7 @@
       <c r="XFA4"/>
       <c r="XFB4"/>
     </row>
-    <row r="5" ht="14.25" spans="1:16382">
+    <row r="5" spans="1:16382">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -729,7 +770,7 @@
       <c r="XFA5"/>
       <c r="XFB5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:16382">
+    <row r="6" spans="1:16382">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -745,7 +786,7 @@
       <c r="XFA6"/>
       <c r="XFB6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:16382">
+    <row r="7" spans="1:16382">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -761,7 +802,7 @@
       <c r="XFA7"/>
       <c r="XFB7"/>
     </row>
-    <row r="8" ht="14.25" spans="1:16382">
+    <row r="8" spans="1:16382">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -779,7 +820,7 @@
       <c r="XFA8"/>
       <c r="XFB8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:16382">
+    <row r="9" spans="1:16382">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -797,26 +838,26 @@
       <c r="XFA9"/>
       <c r="XFB9"/>
     </row>
-    <row r="10" ht="14.25" spans="1:16382">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:16382">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <v>1</v>
       </c>
       <c r="XFA10"/>
       <c r="XFB10"/>
     </row>
     <row r="11" ht="22.5" spans="1:16382">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -833,21 +874,33 @@
       <c r="XFA11"/>
       <c r="XFB11"/>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" ht="14.25" spans="1:16382">
+    <row r="15" spans="1:16382">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
       <c r="XEY15"/>
@@ -857,13 +910,13 @@
     </row>
     <row r="16" ht="22.5" spans="1:16382">
       <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="4"/>
       <c r="XEY16"/>
@@ -873,17 +926,22 @@
     </row>
     <row r="17" ht="22.5" spans="1:16382">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="XEY17"/>
       <c r="XEZ17"/>
       <c r="XFA17"/>
       <c r="XFB17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
